--- a/data/金砖四国汇率数据指标结果_BIS__根据导师给的划分区间_2019-03.xlsx
+++ b/data/金砖四国汇率数据指标结果_BIS__根据导师给的划分区间_2019-03.xlsx
@@ -8,22 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ethan/Documents/Ethan/CoreFiles/CodesFile/MoneyMismatch/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52A4C90A-EB17-8B4B-8E54-AE22E220CFAB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABED1A6F-7557-B14E-9503-EDD71B96203E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33600" yWindow="-3160" windowWidth="51200" windowHeight="28340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33600" yWindow="-3160" windowWidth="51200" windowHeight="28340" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="中国" sheetId="1" r:id="rId1"/>
     <sheet name="印度" sheetId="6" r:id="rId2"/>
-    <sheet name="巴西" sheetId="7" r:id="rId3"/>
-    <sheet name="俄罗斯" sheetId="8" r:id="rId4"/>
+    <sheet name="俄罗斯" sheetId="8" r:id="rId3"/>
+    <sheet name="巴西" sheetId="9" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="44">
   <si>
     <t>时点开始</t>
   </si>
@@ -46,37 +46,10 @@
     <t>5</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
     <t>1981-01-02</t>
   </si>
   <si>
     <t>1994-01-03</t>
-  </si>
-  <si>
-    <t>1997-07-01</t>
-  </si>
-  <si>
-    <t>1999-01-04</t>
   </si>
   <si>
     <t>2005-07-21</t>
@@ -89,12 +62,6 @@
   </si>
   <si>
     <t>1994-01-02</t>
-  </si>
-  <si>
-    <t>1997-06-30</t>
-  </si>
-  <si>
-    <t>1999-01-03</t>
   </si>
   <si>
     <t>2005-07-20</t>
@@ -115,46 +82,13 @@
     <t>1975-09-24</t>
   </si>
   <si>
-    <t>1991-06-28</t>
-  </si>
-  <si>
     <t>1992-03-02</t>
-  </si>
-  <si>
-    <t>1993-03-01</t>
-  </si>
-  <si>
-    <t>1994-08-01</t>
-  </si>
-  <si>
-    <t>2004-01-02</t>
-  </si>
-  <si>
-    <t>2008-01-02</t>
-  </si>
-  <si>
-    <t>2010-01-04</t>
   </si>
   <si>
     <t>1975-09-23</t>
   </si>
   <si>
     <t>1992-03-01</t>
-  </si>
-  <si>
-    <t>1993-02-28</t>
-  </si>
-  <si>
-    <t>1994-07-31</t>
-  </si>
-  <si>
-    <t>2004-01-01</t>
-  </si>
-  <si>
-    <t>2008-01-01</t>
-  </si>
-  <si>
-    <t>2010-01-03</t>
   </si>
   <si>
     <t>1984-12-03</t>
@@ -172,12 +106,6 @@
     <t>2008-04-30</t>
   </si>
   <si>
-    <t>2008-09-01</t>
-  </si>
-  <si>
-    <t>2009-05-27</t>
-  </si>
-  <si>
     <t>1992-05-04</t>
   </si>
   <si>
@@ -190,12 +118,6 @@
     <t>2008-04-29</t>
   </si>
   <si>
-    <t>2008-08-31</t>
-  </si>
-  <si>
-    <t>2009-05-26</t>
-  </si>
-  <si>
     <t>1992-07-01</t>
   </si>
   <si>
@@ -203,18 +125,6 @@
   </si>
   <si>
     <t>1998-08-17</t>
-  </si>
-  <si>
-    <t>1998-09-09</t>
-  </si>
-  <si>
-    <t>2001-01-02</t>
-  </si>
-  <si>
-    <t>2006-03-01</t>
-  </si>
-  <si>
-    <t>2008-06-02</t>
   </si>
   <si>
     <t>2014-11-10</t>
@@ -226,18 +136,6 @@
     <t>1998-08-16</t>
   </si>
   <si>
-    <t>1998-09-08</t>
-  </si>
-  <si>
-    <t>2001-01-01</t>
-  </si>
-  <si>
-    <t>2006-02-28</t>
-  </si>
-  <si>
-    <t>2008-06-01</t>
-  </si>
-  <si>
     <t>2014-11-09</t>
   </si>
   <si>
@@ -245,15 +143,6 @@
   </si>
   <si>
     <t>样本方差</t>
-  </si>
-  <si>
-    <t>2000-05-31</t>
-  </si>
-  <si>
-    <t>2000-06-01</t>
-  </si>
-  <si>
-    <t>13</t>
   </si>
   <si>
     <t>样本差分均值</t>
@@ -1587,9 +1476,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>印度!$B$2:$B$14</c:f>
+              <c:f>印度!$B$2:$B$5</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>1973-01-02</c:v>
                 </c:pt>
@@ -1600,44 +1489,17 @@
                   <c:v>1992-03-02</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1991-06-28</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1992-03-02</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1993-03-01</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1994-08-01</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1997-07-01</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1999-01-04</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2000-06-01</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2004-01-02</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2008-01-02</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2010-01-04</c:v>
+                  <c:v>2008-04-30</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>印度!$D$2:$D$14</c:f>
+              <c:f>印度!$D$2:$D$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>7.9455735294117646</c:v>
                 </c:pt>
@@ -1648,34 +1510,7 @@
                   <c:v>40.3408590697561</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25.760421686746987</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>28.71584</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>31.518558333333335</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>33.914163487738421</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>39.849182058047496</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>43.290658008379886</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>47.163992108196723</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>43.965997211295033</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>45.889126588693955</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>58.908046465277778</c:v>
+                  <c:v>57.050778578485179</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1988,9 +1823,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>印度!$B$2:$B$14</c:f>
+              <c:f>印度!$B$2:$B$5</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>1973-01-02</c:v>
                 </c:pt>
@@ -2001,44 +1836,17 @@
                   <c:v>1992-03-02</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1991-06-28</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1992-03-02</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1993-03-01</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1994-08-01</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1997-07-01</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1999-01-04</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2000-06-01</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2004-01-02</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2008-01-02</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2010-01-04</c:v>
+                  <c:v>2008-04-30</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>印度!$E$2:$E$14</c:f>
+              <c:f>印度!$E$2:$E$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0.12783383847353377</c:v>
                 </c:pt>
@@ -2049,34 +1857,7 @@
                   <c:v>39.589713727038848</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.37672891201168324</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.27042037590361445</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.9285807172701831E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.1212156512707656</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6.5959597048624214</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.21187554319447346</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.4130231533019015</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4.0012440271919782</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>13.190103412778269</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>70.101888096157339</c:v>
+                  <c:v>78.726211788701562</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2389,9 +2170,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>印度!$B$2:$B$14</c:f>
+              <c:f>印度!$B$2:$B$5</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>1973-01-02</c:v>
                 </c:pt>
@@ -2402,44 +2183,17 @@
                   <c:v>1992-03-02</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1991-06-28</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1992-03-02</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1993-03-01</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1994-08-01</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1997-07-01</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1999-01-04</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2000-06-01</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2004-01-02</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2008-01-02</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2010-01-04</c:v>
+                  <c:v>2008-04-30</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>印度!$F$2:$F$14</c:f>
+              <c:f>印度!$F$2:$F$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>1.3382352941176472E-3</c:v>
                 </c:pt>
@@ -2450,34 +2204,7 @@
                   <c:v>6.4274142167617381E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.078313253012048E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.8079999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.7583333333333392E-3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.1035422343324259E-3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.765171503957785E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5.5572458100558676E-3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.1211245901639362E-3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-6.0822035053554038E-3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.40585633528265E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.0100108940972222E-2</c:v>
+                  <c:v>1.086814207450694E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2790,9 +2517,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>印度!$B$2:$B$14</c:f>
+              <c:f>印度!$B$2:$B$5</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>1973-01-02</c:v>
                 </c:pt>
@@ -2803,44 +2530,17 @@
                   <c:v>1992-03-02</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1991-06-28</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1992-03-02</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1993-03-01</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1994-08-01</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1997-07-01</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1999-01-04</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2000-06-01</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2004-01-02</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2008-01-02</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2010-01-04</c:v>
+                  <c:v>2008-04-30</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>印度!$G$2:$G$14</c:f>
+              <c:f>印度!$G$2:$G$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>2.7930518496058258E-3</c:v>
                 </c:pt>
@@ -2851,34 +2551,7 @@
                   <c:v>4.2805731301090819E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.7323625410733888E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.1057342971887529E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.3910657311977711E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.9941869209809237E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.1309666736468865E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5.364836873407196E-3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5.7492033482623396E-3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.8092137534450714E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8.4729862047453502E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>7.7550498912356769E-2</c:v>
+                  <c:v>8.0908705991907096E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3191,9 +2864,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>印度!$B$2:$B$14</c:f>
+              <c:f>印度!$B$2:$B$5</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>1973-01-02</c:v>
                 </c:pt>
@@ -3204,44 +2877,17 @@
                   <c:v>1992-03-02</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1991-06-28</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1992-03-02</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1993-03-01</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1994-08-01</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1997-07-01</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1999-01-04</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2000-06-01</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2004-01-02</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2008-01-02</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2010-01-04</c:v>
+                  <c:v>2008-04-30</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>印度!$H$2:$H$14</c:f>
+              <c:f>印度!$H$2:$H$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>1.8056946289252994E-4</c:v>
                 </c:pt>
@@ -3252,34 +2898,7 @@
                   <c:v>1.5305514070578554E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.3935160028817626E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.6076301598905066E-4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.0645211481879921E-4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.8997351588617456E-4</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.6182159586748264E-4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.2898669632849854E-4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.6203890705709475E-5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-1.3885173946614132E-4</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.4713773486083675E-4</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.8655319890123831E-4</c:v>
+                  <c:v>2.1451676324844678E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3592,9 +3211,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>印度!$B$2:$B$14</c:f>
+              <c:f>印度!$B$2:$B$5</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>1973-01-02</c:v>
                 </c:pt>
@@ -3605,44 +3224,17 @@
                   <c:v>1992-03-02</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1991-06-28</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1992-03-02</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1993-03-01</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1994-08-01</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1997-07-01</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1999-01-04</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2000-06-01</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2004-01-02</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2008-01-02</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2010-01-04</c:v>
+                  <c:v>2008-04-30</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>印度!$I$2:$I$14</c:f>
+              <c:f>印度!$I$2:$I$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>4.5013952755184382E-5</c:v>
                 </c:pt>
@@ -3653,34 +3245,7 @@
                   <c:v>1.8167961889458981E-5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.8478804431285099E-4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.8036651347241256E-5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.6368545643955333E-5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.6271920910143032E-5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.0143931892446294E-5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.8585041572486512E-6</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.663289010046285E-6</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>9.4978321870058453E-6</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.7749923019801135E-5</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.2582264372765011E-5</c:v>
+                  <c:v>2.5796370682202552E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3904,7 +3469,7 @@
       <c:pieChart>
         <c:varyColors val="1"/>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
@@ -3952,11 +3517,6 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-F55E-A94A-B57B-68F47B4A61CC}"/>
-              </c:ext>
-            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -3993,11 +3553,6 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-F55E-A94A-B57B-68F47B4A61CC}"/>
-              </c:ext>
-            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -4034,11 +3589,6 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-F55E-A94A-B57B-68F47B4A61CC}"/>
-              </c:ext>
-            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -4075,404 +3625,6 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-F55E-A94A-B57B-68F47B4A61CC}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent5">
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent5">
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent5">
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-F55E-A94A-B57B-68F47B4A61CC}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent6">
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent6">
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent6">
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000B-F55E-A94A-B57B-68F47B4A61CC}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="6"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="60000"/>
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="60000"/>
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="60000"/>
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000D-F55E-A94A-B57B-68F47B4A61CC}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="7"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent2">
-                      <a:lumMod val="60000"/>
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent2">
-                      <a:lumMod val="60000"/>
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent2">
-                      <a:lumMod val="60000"/>
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000F-F55E-A94A-B57B-68F47B4A61CC}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="8"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent3">
-                      <a:lumMod val="60000"/>
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent3">
-                      <a:lumMod val="60000"/>
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent3">
-                      <a:lumMod val="60000"/>
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000011-F55E-A94A-B57B-68F47B4A61CC}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="9"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent4">
-                      <a:lumMod val="60000"/>
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent4">
-                      <a:lumMod val="60000"/>
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent4">
-                      <a:lumMod val="60000"/>
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000013-F55E-A94A-B57B-68F47B4A61CC}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="10"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent5">
-                      <a:lumMod val="60000"/>
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent5">
-                      <a:lumMod val="60000"/>
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent5">
-                      <a:lumMod val="60000"/>
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000015-F55E-A94A-B57B-68F47B4A61CC}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="11"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent6">
-                      <a:lumMod val="60000"/>
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent6">
-                      <a:lumMod val="60000"/>
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent6">
-                      <a:lumMod val="60000"/>
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000017-F55E-A94A-B57B-68F47B4A61CC}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="12"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="80000"/>
-                      <a:lumOff val="20000"/>
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="80000"/>
-                      <a:lumOff val="20000"/>
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="80000"/>
-                      <a:lumOff val="20000"/>
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000019-F55E-A94A-B57B-68F47B4A61CC}"/>
-              </c:ext>
-            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -4483,7 +3635,9 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -4525,9 +3679,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>印度!$B$2:$B$14</c:f>
+              <c:f>印度!$B$2:$B$5</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>1973-01-02</c:v>
                 </c:pt>
@@ -4538,44 +3692,17 @@
                   <c:v>1992-03-02</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1991-06-28</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1992-03-02</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1993-03-01</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1994-08-01</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1997-07-01</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1999-01-04</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2000-06-01</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2004-01-02</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2008-01-02</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2010-01-04</c:v>
+                  <c:v>2008-04-30</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>印度!$D$2:$D$14</c:f>
+              <c:f>印度!$D$2:$D$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>7.9455735294117646</c:v>
                 </c:pt>
@@ -4586,1483 +3713,14 @@
                   <c:v>40.3408590697561</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25.760421686746987</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>28.71584</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>31.518558333333335</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>33.914163487738421</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>39.849182058047496</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>43.290658008379886</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>47.163992108196723</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>43.965997211295033</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>45.889126588693955</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>58.908046465277778</c:v>
+                  <c:v>57.050778578485179</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-EE34-2D4D-BFF1-C9D7ED8A21C9}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>印度!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>样本方差</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent1">
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent1">
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000001B-F55E-A94A-B57B-68F47B4A61CC}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent2">
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent2">
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent2">
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000001D-F55E-A94A-B57B-68F47B4A61CC}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent3">
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent3">
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent3">
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000001F-F55E-A94A-B57B-68F47B4A61CC}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent4">
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent4">
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent4">
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000021-F55E-A94A-B57B-68F47B4A61CC}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent5">
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent5">
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent5">
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000023-F55E-A94A-B57B-68F47B4A61CC}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent6">
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent6">
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent6">
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000025-F55E-A94A-B57B-68F47B4A61CC}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="6"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="60000"/>
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="60000"/>
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="60000"/>
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000027-F55E-A94A-B57B-68F47B4A61CC}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="7"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent2">
-                      <a:lumMod val="60000"/>
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent2">
-                      <a:lumMod val="60000"/>
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent2">
-                      <a:lumMod val="60000"/>
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000029-F55E-A94A-B57B-68F47B4A61CC}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="8"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent3">
-                      <a:lumMod val="60000"/>
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent3">
-                      <a:lumMod val="60000"/>
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent3">
-                      <a:lumMod val="60000"/>
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000002B-F55E-A94A-B57B-68F47B4A61CC}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="9"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent4">
-                      <a:lumMod val="60000"/>
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent4">
-                      <a:lumMod val="60000"/>
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent4">
-                      <a:lumMod val="60000"/>
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000002D-F55E-A94A-B57B-68F47B4A61CC}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="10"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent5">
-                      <a:lumMod val="60000"/>
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent5">
-                      <a:lumMod val="60000"/>
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent5">
-                      <a:lumMod val="60000"/>
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000002F-F55E-A94A-B57B-68F47B4A61CC}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="11"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent6">
-                      <a:lumMod val="60000"/>
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent6">
-                      <a:lumMod val="60000"/>
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent6">
-                      <a:lumMod val="60000"/>
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000031-F55E-A94A-B57B-68F47B4A61CC}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="12"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="80000"/>
-                      <a:lumOff val="20000"/>
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="80000"/>
-                      <a:lumOff val="20000"/>
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="80000"/>
-                      <a:lumOff val="20000"/>
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000033-F55E-A94A-B57B-68F47B4A61CC}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx2"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="1"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-            <c:leaderLines>
-              <c:spPr>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="tx2">
-                      <a:lumMod val="35000"/>
-                      <a:lumOff val="65000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:leaderLines>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>印度!$B$2:$B$14</c:f>
-              <c:strCache>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>1973-01-02</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1975-09-24</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1992-03-02</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1991-06-28</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1992-03-02</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1993-03-01</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1994-08-01</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1997-07-01</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1999-01-04</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2000-06-01</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2004-01-02</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2008-01-02</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2010-01-04</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>印度!$E$2:$E$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>0.12783383847353377</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>18.219509592722353</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>39.589713727038848</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.37672891201168324</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.27042037590361445</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.9285807172701831E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.1212156512707656</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6.5959597048624214</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.21187554319447346</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.4130231533019015</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4.0012440271919782</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>13.190103412778269</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>70.101888096157339</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000001A-EE34-2D4D-BFF1-C9D7ED8A21C9}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>印度!$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>样本日变化率均值</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent1">
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent1">
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000035-F55E-A94A-B57B-68F47B4A61CC}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent2">
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent2">
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent2">
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000037-F55E-A94A-B57B-68F47B4A61CC}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent3">
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent3">
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent3">
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000039-F55E-A94A-B57B-68F47B4A61CC}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent4">
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent4">
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent4">
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000003B-F55E-A94A-B57B-68F47B4A61CC}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent5">
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent5">
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent5">
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000003D-F55E-A94A-B57B-68F47B4A61CC}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent6">
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent6">
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent6">
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000003F-F55E-A94A-B57B-68F47B4A61CC}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="6"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="60000"/>
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="60000"/>
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="60000"/>
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000041-F55E-A94A-B57B-68F47B4A61CC}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="7"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent2">
-                      <a:lumMod val="60000"/>
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent2">
-                      <a:lumMod val="60000"/>
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent2">
-                      <a:lumMod val="60000"/>
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000043-F55E-A94A-B57B-68F47B4A61CC}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="8"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent3">
-                      <a:lumMod val="60000"/>
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent3">
-                      <a:lumMod val="60000"/>
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent3">
-                      <a:lumMod val="60000"/>
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000045-F55E-A94A-B57B-68F47B4A61CC}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="9"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent4">
-                      <a:lumMod val="60000"/>
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent4">
-                      <a:lumMod val="60000"/>
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent4">
-                      <a:lumMod val="60000"/>
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000047-F55E-A94A-B57B-68F47B4A61CC}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="10"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent5">
-                      <a:lumMod val="60000"/>
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent5">
-                      <a:lumMod val="60000"/>
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent5">
-                      <a:lumMod val="60000"/>
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000049-F55E-A94A-B57B-68F47B4A61CC}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="11"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent6">
-                      <a:lumMod val="60000"/>
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent6">
-                      <a:lumMod val="60000"/>
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent6">
-                      <a:lumMod val="60000"/>
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000004B-F55E-A94A-B57B-68F47B4A61CC}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="12"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="80000"/>
-                      <a:lumOff val="20000"/>
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="80000"/>
-                      <a:lumOff val="20000"/>
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="80000"/>
-                      <a:lumOff val="20000"/>
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000004D-F55E-A94A-B57B-68F47B4A61CC}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx2"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="1"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-            <c:leaderLines>
-              <c:spPr>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="tx2">
-                      <a:lumMod val="35000"/>
-                      <a:lumOff val="65000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:leaderLines>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>印度!$B$2:$B$14</c:f>
-              <c:strCache>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>1973-01-02</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1975-09-24</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1992-03-02</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1991-06-28</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1992-03-02</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1993-03-01</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1994-08-01</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1997-07-01</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1999-01-04</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2000-06-01</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2004-01-02</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2008-01-02</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2010-01-04</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>印度!$H$2:$H$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>1.8056946289252994E-4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.7619041825477608E-4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.5305514070578554E-4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.3935160028817626E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.6076301598905066E-4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.0645211481879921E-4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.8997351588617456E-4</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.6182159586748264E-4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.2898669632849854E-4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.6203890705709475E-5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-1.3885173946614132E-4</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.4713773486083675E-4</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.8655319890123831E-4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000001B-EE34-2D4D-BFF1-C9D7ED8A21C9}"/>
+              <c16:uniqueId val="{0000004E-3CC8-4F46-AE43-F1012ACE464A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6819,9 +4477,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>印度!$B$2:$B$14</c:f>
+              <c:f>印度!$B$2:$B$5</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>1973-01-02</c:v>
                 </c:pt>
@@ -6832,44 +4490,17 @@
                   <c:v>1992-03-02</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1991-06-28</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1992-03-02</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1993-03-01</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1994-08-01</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1997-07-01</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1999-01-04</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2000-06-01</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2004-01-02</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2008-01-02</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2010-01-04</c:v>
+                  <c:v>2008-04-30</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>印度!$E$2:$E$14</c:f>
+              <c:f>印度!$E$2:$E$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0.12783383847353377</c:v>
                 </c:pt>
@@ -6880,34 +4511,7 @@
                   <c:v>39.589713727038848</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.37672891201168324</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.27042037590361445</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.9285807172701831E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.1212156512707656</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6.5959597048624214</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.21187554319447346</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.4130231533019015</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4.0012440271919782</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>13.190103412778269</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>70.101888096157339</c:v>
+                  <c:v>78.726211788701562</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7693,9 +5297,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>印度!$B$2:$B$14</c:f>
+              <c:f>印度!$B$2:$B$5</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>1973-01-02</c:v>
                 </c:pt>
@@ -7706,44 +5310,17 @@
                   <c:v>1992-03-02</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1991-06-28</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1992-03-02</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1993-03-01</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1994-08-01</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1997-07-01</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1999-01-04</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2000-06-01</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2004-01-02</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2008-01-02</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2010-01-04</c:v>
+                  <c:v>2008-04-30</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>印度!$H$2:$H$14</c:f>
+              <c:f>印度!$H$2:$H$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>1.8056946289252994E-4</c:v>
                 </c:pt>
@@ -7754,34 +5331,7 @@
                   <c:v>1.5305514070578554E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.3935160028817626E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.6076301598905066E-4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.0645211481879921E-4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.8997351588617456E-4</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.6182159586748264E-4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.2898669632849854E-4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.6203890705709475E-5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-1.3885173946614132E-4</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.4713773486083675E-4</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.8655319890123831E-4</c:v>
+                  <c:v>2.1451676324844678E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8414,9 +5964,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>印度!$B$2:$B$14</c:f>
+              <c:f>印度!$B$2:$B$5</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>1973-01-02</c:v>
                 </c:pt>
@@ -8427,34 +5977,7 @@
                   <c:v>1992-03-02</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1991-06-28</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1992-03-02</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1993-03-01</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1994-08-01</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1997-07-01</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1999-01-04</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2000-06-01</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2004-01-02</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2008-01-02</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2010-01-04</c:v>
+                  <c:v>2008-04-30</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8475,34 +5998,7 @@
                   <c:v>40.3408590697561</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25.760421686746987</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>28.71584</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>31.518558333333335</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>33.914163487738421</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>39.849182058047496</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>43.290658008379886</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>47.163992108196723</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>43.965997211295033</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>45.889126588693955</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>58.908046465277778</c:v>
+                  <c:v>57.050778578485179</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9135,9 +6631,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>印度!$B$2:$B$14</c:f>
+              <c:f>印度!$B$2:$B$5</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>1973-01-02</c:v>
                 </c:pt>
@@ -9148,34 +6644,7 @@
                   <c:v>1992-03-02</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1991-06-28</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1992-03-02</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1993-03-01</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1994-08-01</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1997-07-01</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1999-01-04</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2000-06-01</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2004-01-02</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2008-01-02</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2010-01-04</c:v>
+                  <c:v>2008-04-30</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9196,34 +6665,7 @@
                   <c:v>39.589713727038848</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.37672891201168324</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.27042037590361445</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.9285807172701831E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.1212156512707656</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6.5959597048624214</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.21187554319447346</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.4130231533019015</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4.0012440271919782</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>13.190103412778269</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>70.101888096157339</c:v>
+                  <c:v>78.726211788701562</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9856,9 +7298,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>印度!$B$2:$B$14</c:f>
+              <c:f>印度!$B$2:$B$5</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>1973-01-02</c:v>
                 </c:pt>
@@ -9869,34 +7311,7 @@
                   <c:v>1992-03-02</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1991-06-28</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1992-03-02</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1993-03-01</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1994-08-01</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1997-07-01</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1999-01-04</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2000-06-01</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2004-01-02</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2008-01-02</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2010-01-04</c:v>
+                  <c:v>2008-04-30</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9917,34 +7332,7 @@
                   <c:v>1.5305514070578554E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.3935160028817626E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.6076301598905066E-4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.0645211481879921E-4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.8997351588617456E-4</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.6182159586748264E-4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.2898669632849854E-4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.6203890705709475E-5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-1.3885173946614132E-4</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.4713773486083675E-4</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.8655319890123831E-4</c:v>
+                  <c:v>2.1451676324844678E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11060,9 +8448,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>印度!$B$2:$B$14</c:f>
+              <c:f>印度!$B$2:$B$5</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>1973-01-02</c:v>
                 </c:pt>
@@ -11073,44 +8461,17 @@
                   <c:v>1992-03-02</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1991-06-28</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1992-03-02</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1993-03-01</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1994-08-01</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1997-07-01</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1999-01-04</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2000-06-01</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2004-01-02</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2008-01-02</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2010-01-04</c:v>
+                  <c:v>2008-04-30</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>印度!$I$2:$I$14</c:f>
+              <c:f>印度!$I$2:$I$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>4.5013952755184382E-5</c:v>
                 </c:pt>
@@ -11121,34 +8482,7 @@
                   <c:v>1.8167961889458981E-5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.8478804431285099E-4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.8036651347241256E-5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.6368545643955333E-5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.6271920910143032E-5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.0143931892446294E-5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.8585041572486512E-6</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.663289010046285E-6</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>9.4978321870058453E-6</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.7749923019801135E-5</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.2582264372765011E-5</c:v>
+                  <c:v>2.5796370682202552E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11300,7 +8634,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>巴西!$D$1</c:f>
+              <c:f>俄罗斯!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11380,66 +8714,48 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>巴西!$B$2:$B$8</c:f>
+              <c:f>俄罗斯!$B$2:$B$5</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1984-12-03</c:v>
+                  <c:v>1992-07-01</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1992-05-05</c:v>
+                  <c:v>1995-07-05</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1994-07-01</c:v>
+                  <c:v>1998-08-17</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1999-02-01</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2008-04-30</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2008-09-01</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2009-05-27</c:v>
+                  <c:v>2014-11-10</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>巴西!$D$2:$D$8</c:f>
+              <c:f>俄罗斯!$D$2:$D$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>5.0529356025352114E-5</c:v>
+                  <c:v>1.8553255031847133</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.10915407928547491</c:v>
+                  <c:v>5.4294217391304347</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.029466</c:v>
+                  <c:v>28.978326112046165</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.3732482229848695</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.6213420389873818</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.2073386797832804</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.5668984673335067</c:v>
+                  <c:v>62.028496283286117</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-64C7-C84E-B7B7-692372BBCA8A}"/>
+              <c16:uniqueId val="{00000000-4B8D-0E45-9AEA-06EC14518C10}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -11665,7 +8981,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>巴西!$E$1</c:f>
+              <c:f>俄罗斯!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11685,7 +9001,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:numFmt formatCode="#,##0.000_);[Red]\(#,##0.000\)" sourceLinked="0"/>
+            <c:numFmt formatCode="#,##0.00_);[Red]\(#,##0.00\)" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -11745,66 +9061,48 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>巴西!$B$2:$B$8</c:f>
+              <c:f>俄罗斯!$B$2:$B$5</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1984-12-03</c:v>
+                  <c:v>1992-07-01</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1992-05-05</c:v>
+                  <c:v>1995-07-05</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1994-07-01</c:v>
+                  <c:v>1998-08-17</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1999-02-01</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2008-04-30</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2008-09-01</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2009-05-27</c:v>
+                  <c:v>2014-11-10</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>巴西!$E$2:$E$8</c:f>
+              <c:f>俄罗斯!$E$2:$E$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.8653909840847539E-8</c:v>
+                  <c:v>2.1918512019931455</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.1080112747907203E-2</c:v>
+                  <c:v>0.3330197289422453</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.6050488703742385E-2</c:v>
+                  <c:v>13.575495687567491</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.27192453380505688</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.0907849237266161E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.8502358855145288E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.60405461626600998</c:v>
+                  <c:v>33.510939315539886</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6314-B448-A00A-1CAE67AC41EC}"/>
+              <c16:uniqueId val="{00000000-56A8-EB42-A0FF-9904D91E4690}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -12030,7 +9328,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>巴西!$F$1</c:f>
+              <c:f>俄罗斯!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -12110,66 +9408,48 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>巴西!$B$2:$B$8</c:f>
+              <c:f>俄罗斯!$B$2:$B$5</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1984-12-03</c:v>
+                  <c:v>1992-07-01</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1992-05-05</c:v>
+                  <c:v>1995-07-05</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1994-07-01</c:v>
+                  <c:v>1998-08-17</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1999-02-01</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2008-04-30</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2008-09-01</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2009-05-27</c:v>
+                  <c:v>2014-11-10</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>巴西!$F$2:$F$8</c:f>
+              <c:f>俄罗斯!$F$2:$F$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>4.7636306991869921E-7</c:v>
+                  <c:v>5.6404331210191082E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.7972854411271218E-3</c:v>
+                  <c:v>1.5681185651353052E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.4680474308304332E-4</c:v>
+                  <c:v>1.1637815970892378E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-1.0331359709212527E-4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-3.4771579710113609E-4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.2276448650502671E-3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.5494971104902455E-4</c:v>
+                  <c:v>1.9665003759398496E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-76FE-E642-BD6D-A59ED48F9286}"/>
+              <c16:uniqueId val="{00000000-3868-AB4C-851C-F6886191DDD7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -12395,7 +9675,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>巴西!$G$1</c:f>
+              <c:f>俄罗斯!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -12475,66 +9755,48 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>巴西!$B$2:$B$8</c:f>
+              <c:f>俄罗斯!$B$2:$B$5</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1984-12-03</c:v>
+                  <c:v>1992-07-01</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1992-05-05</c:v>
+                  <c:v>1995-07-05</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1994-07-01</c:v>
+                  <c:v>1998-08-17</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1999-02-01</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2008-04-30</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2008-09-01</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2009-05-27</c:v>
+                  <c:v>2014-11-10</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>巴西!$G$2:$G$8</c:f>
+              <c:f>俄罗斯!$G$2:$G$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2.307860479279215E-12</c:v>
+                  <c:v>3.1303248217509419E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3162306533244229E-5</c:v>
+                  <c:v>8.2795057878482486E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.7633576942398931E-5</c:v>
+                  <c:v>0.1994463991781544</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.9976525803182779E-4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.5085144861789421E-4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.8304460325202299E-3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.7096704484404916E-4</c:v>
+                  <c:v>0.77722706304221822</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-81F1-D642-9CC8-2E334E77CAD1}"/>
+              <c16:uniqueId val="{00000000-F904-0443-AE98-32F9A141E17B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -12760,7 +10022,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>巴西!$H$1</c:f>
+              <c:f>俄罗斯!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -12780,7 +10042,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:numFmt formatCode="0.00%" sourceLinked="0"/>
+            <c:numFmt formatCode="0.000%" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -12840,66 +10102,48 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>巴西!$B$2:$B$8</c:f>
+              <c:f>俄罗斯!$B$2:$B$5</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1984-12-03</c:v>
+                  <c:v>1992-07-01</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1992-05-05</c:v>
+                  <c:v>1995-07-05</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1994-07-01</c:v>
+                  <c:v>1998-08-17</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1999-02-01</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2008-04-30</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2008-09-01</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2009-05-27</c:v>
+                  <c:v>2014-11-10</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>巴西!$H$2:$H$8</c:f>
+              <c:f>俄罗斯!$H$2:$H$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>7.4715317032288406E-3</c:v>
+                  <c:v>4.9122786692222401E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3046715710908409E-2</c:v>
+                  <c:v>1.369072993707194E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.7349539972745966E-4</c:v>
+                  <c:v>5.3905850503740949E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.8559884090709803E-5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-1.8311937432317657E-4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.5042002020284673E-3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.1021885424448761E-4</c:v>
+                  <c:v>4.4729683104368495E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E406-784F-8418-6B49D1517DD0}"/>
+              <c16:uniqueId val="{00000000-BC8A-A647-8569-BB802F547246}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -13125,7 +10369,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>巴西!$I$1</c:f>
+              <c:f>俄罗斯!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -13205,66 +10449,48 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>巴西!$B$2:$B$8</c:f>
+              <c:f>俄罗斯!$B$2:$B$5</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1984-12-03</c:v>
+                  <c:v>1992-07-01</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1992-05-05</c:v>
+                  <c:v>1995-07-05</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1994-07-01</c:v>
+                  <c:v>1998-08-17</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1999-02-01</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2008-04-30</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2008-09-01</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2009-05-27</c:v>
+                  <c:v>2014-11-10</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>巴西!$I$2:$I$8</c:f>
+              <c:f>俄罗斯!$I$2:$I$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.0405304375691399E-4</c:v>
+                  <c:v>7.109254017997823E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0411368544420786E-5</c:v>
+                  <c:v>3.908068722479812E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.0465449229345148E-5</c:v>
+                  <c:v>1.7500487117332473E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.509576951209591E-4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.621366323253552E-5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.6799804599312869E-4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9.0594284530824825E-5</c:v>
+                  <c:v>1.9626874068381413E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5C3B-9248-87F5-45AE02774D2A}"/>
+              <c16:uniqueId val="{00000000-9E37-7040-99B8-48C98E4ADE86}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -13449,28 +10675,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx2"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="zh-CN"/>
-              <a:t>样本均值</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13507,7 +10711,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>巴西!$D$1</c:f>
+              <c:f>俄罗斯!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -13553,7 +10757,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000001C-43C7-D745-AD0D-D5687007662B}"/>
+                <c16:uniqueId val="{00000001-F33F-794A-90BB-63F2EB77551E}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -13594,7 +10798,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000001E-43C7-D745-AD0D-D5687007662B}"/>
+                <c16:uniqueId val="{00000003-F33F-794A-90BB-63F2EB77551E}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -13635,7 +10839,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000020-43C7-D745-AD0D-D5687007662B}"/>
+                <c16:uniqueId val="{00000005-F33F-794A-90BB-63F2EB77551E}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -13676,7 +10880,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000022-43C7-D745-AD0D-D5687007662B}"/>
+                <c16:uniqueId val="{00000007-F33F-794A-90BB-63F2EB77551E}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -13717,7 +10921,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000024-43C7-D745-AD0D-D5687007662B}"/>
+                <c16:uniqueId val="{00000009-F33F-794A-90BB-63F2EB77551E}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -13758,7 +10962,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000026-43C7-D745-AD0D-D5687007662B}"/>
+                <c16:uniqueId val="{0000000B-F33F-794A-90BB-63F2EB77551E}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -13802,7 +11006,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000028-43C7-D745-AD0D-D5687007662B}"/>
+                <c16:uniqueId val="{0000000D-F33F-794A-90BB-63F2EB77551E}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -13846,7 +11050,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000002A-43C7-D745-AD0D-D5687007662B}"/>
+                <c16:uniqueId val="{0000000F-F33F-794A-90BB-63F2EB77551E}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -13890,139 +11094,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000002C-43C7-D745-AD0D-D5687007662B}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="9"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent4">
-                      <a:lumMod val="60000"/>
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent4">
-                      <a:lumMod val="60000"/>
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent4">
-                      <a:lumMod val="60000"/>
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000002E-43C7-D745-AD0D-D5687007662B}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="10"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent5">
-                      <a:lumMod val="60000"/>
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent5">
-                      <a:lumMod val="60000"/>
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent5">
-                      <a:lumMod val="60000"/>
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000030-43C7-D745-AD0D-D5687007662B}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="11"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent6">
-                      <a:lumMod val="60000"/>
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent6">
-                      <a:lumMod val="60000"/>
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent6">
-                      <a:lumMod val="60000"/>
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000032-43C7-D745-AD0D-D5687007662B}"/>
+                <c16:uniqueId val="{00000011-F33F-794A-90BB-63F2EB77551E}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -14077,66 +11149,48 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>巴西!$B$2:$B$8</c:f>
+              <c:f>俄罗斯!$B$2:$B$5</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1984-12-03</c:v>
+                  <c:v>1992-07-01</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1992-05-05</c:v>
+                  <c:v>1995-07-05</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1994-07-01</c:v>
+                  <c:v>1998-08-17</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1999-02-01</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2008-04-30</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2008-09-01</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2009-05-27</c:v>
+                  <c:v>2014-11-10</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>巴西!$D$2:$D$8</c:f>
+              <c:f>俄罗斯!$D$2:$D$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>5.0529356025352114E-5</c:v>
+                  <c:v>1.8553255031847133</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.10915407928547491</c:v>
+                  <c:v>5.4294217391304347</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.029466</c:v>
+                  <c:v>28.978326112046165</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.3732482229848695</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.6213420389873818</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.2073386797832804</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.5668984673335067</c:v>
+                  <c:v>62.028496283286117</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000033-43C7-D745-AD0D-D5687007662B}"/>
+              <c16:uniqueId val="{00000000-8BF5-6D46-BE27-7E2842B1D660}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -14276,7 +11330,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>巴西!$E$1</c:f>
+              <c:f>俄罗斯!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -14322,7 +11376,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-18D5-BB4B-ACE9-2A9126FDC40E}"/>
+                <c16:uniqueId val="{00000001-BEC7-BF48-A9E7-6A6C98A6CAE0}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -14363,7 +11417,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-18D5-BB4B-ACE9-2A9126FDC40E}"/>
+                <c16:uniqueId val="{00000003-BEC7-BF48-A9E7-6A6C98A6CAE0}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -14404,7 +11458,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-18D5-BB4B-ACE9-2A9126FDC40E}"/>
+                <c16:uniqueId val="{00000005-BEC7-BF48-A9E7-6A6C98A6CAE0}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -14445,7 +11499,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-18D5-BB4B-ACE9-2A9126FDC40E}"/>
+                <c16:uniqueId val="{00000007-BEC7-BF48-A9E7-6A6C98A6CAE0}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -14486,7 +11540,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-18D5-BB4B-ACE9-2A9126FDC40E}"/>
+                <c16:uniqueId val="{00000009-BEC7-BF48-A9E7-6A6C98A6CAE0}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -14527,7 +11581,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000B-18D5-BB4B-ACE9-2A9126FDC40E}"/>
+                <c16:uniqueId val="{0000000B-BEC7-BF48-A9E7-6A6C98A6CAE0}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -14571,7 +11625,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000D-18D5-BB4B-ACE9-2A9126FDC40E}"/>
+                <c16:uniqueId val="{0000000D-BEC7-BF48-A9E7-6A6C98A6CAE0}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -14615,7 +11669,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000F-18D5-BB4B-ACE9-2A9126FDC40E}"/>
+                <c16:uniqueId val="{0000000F-BEC7-BF48-A9E7-6A6C98A6CAE0}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -14659,7 +11713,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000011-18D5-BB4B-ACE9-2A9126FDC40E}"/>
+                <c16:uniqueId val="{00000011-BEC7-BF48-A9E7-6A6C98A6CAE0}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -14703,7 +11757,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000013-18D5-BB4B-ACE9-2A9126FDC40E}"/>
+                <c16:uniqueId val="{00000013-BEC7-BF48-A9E7-6A6C98A6CAE0}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -14747,7 +11801,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000015-18D5-BB4B-ACE9-2A9126FDC40E}"/>
+                <c16:uniqueId val="{00000015-BEC7-BF48-A9E7-6A6C98A6CAE0}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -14791,7 +11845,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000017-18D5-BB4B-ACE9-2A9126FDC40E}"/>
+                <c16:uniqueId val="{00000017-BEC7-BF48-A9E7-6A6C98A6CAE0}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -14846,66 +11900,48 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>巴西!$B$2:$B$8</c:f>
+              <c:f>俄罗斯!$B$2:$B$5</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1984-12-03</c:v>
+                  <c:v>1992-07-01</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1992-05-05</c:v>
+                  <c:v>1995-07-05</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1994-07-01</c:v>
+                  <c:v>1998-08-17</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1999-02-01</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2008-04-30</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2008-09-01</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2009-05-27</c:v>
+                  <c:v>2014-11-10</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>巴西!$E$2:$E$8</c:f>
+              <c:f>俄罗斯!$E$2:$E$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.8653909840847539E-8</c:v>
+                  <c:v>2.1918512019931455</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.1080112747907203E-2</c:v>
+                  <c:v>0.3330197289422453</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.6050488703742385E-2</c:v>
+                  <c:v>13.575495687567491</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.27192453380505688</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.0907849237266161E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.8502358855145288E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.60405461626600998</c:v>
+                  <c:v>33.510939315539886</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000018-18D5-BB4B-ACE9-2A9126FDC40E}"/>
+              <c16:uniqueId val="{00000018-BEC7-BF48-A9E7-6A6C98A6CAE0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -15009,28 +12045,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx2"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="zh-CN"/>
-              <a:t>样本变化率均值</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -15067,7 +12081,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>巴西!$H$1</c:f>
+              <c:f>俄罗斯!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -15113,7 +12127,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-2165-CD47-A1E5-65A269EA396F}"/>
+                <c16:uniqueId val="{00000001-619D-0243-A260-52FB44822039}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -15154,7 +12168,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-2165-CD47-A1E5-65A269EA396F}"/>
+                <c16:uniqueId val="{00000003-619D-0243-A260-52FB44822039}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -15195,7 +12209,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-2165-CD47-A1E5-65A269EA396F}"/>
+                <c16:uniqueId val="{00000005-619D-0243-A260-52FB44822039}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -15236,7 +12250,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-2165-CD47-A1E5-65A269EA396F}"/>
+                <c16:uniqueId val="{00000007-619D-0243-A260-52FB44822039}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -15277,7 +12291,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000B-2165-CD47-A1E5-65A269EA396F}"/>
+                <c16:uniqueId val="{00000009-619D-0243-A260-52FB44822039}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -15318,7 +12332,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000D-2165-CD47-A1E5-65A269EA396F}"/>
+                <c16:uniqueId val="{0000000B-619D-0243-A260-52FB44822039}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -15362,7 +12376,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000F-2165-CD47-A1E5-65A269EA396F}"/>
+                <c16:uniqueId val="{0000000D-619D-0243-A260-52FB44822039}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -15406,7 +12420,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000011-2165-CD47-A1E5-65A269EA396F}"/>
+                <c16:uniqueId val="{0000000F-619D-0243-A260-52FB44822039}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -15450,186 +12464,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000013-2165-CD47-A1E5-65A269EA396F}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="9"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent4">
-                      <a:lumMod val="60000"/>
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent4">
-                      <a:lumMod val="60000"/>
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent4">
-                      <a:lumMod val="60000"/>
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000015-2165-CD47-A1E5-65A269EA396F}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="10"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent5">
-                      <a:lumMod val="60000"/>
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent5">
-                      <a:lumMod val="60000"/>
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent5">
-                      <a:lumMod val="60000"/>
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000017-2165-CD47-A1E5-65A269EA396F}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="11"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent6">
-                      <a:lumMod val="60000"/>
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent6">
-                      <a:lumMod val="60000"/>
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent6">
-                      <a:lumMod val="60000"/>
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000019-2165-CD47-A1E5-65A269EA396F}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="12"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="80000"/>
-                      <a:lumOff val="20000"/>
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="80000"/>
-                      <a:lumOff val="20000"/>
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="80000"/>
-                      <a:lumOff val="20000"/>
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000001B-2165-CD47-A1E5-65A269EA396F}"/>
+                <c16:uniqueId val="{00000011-619D-0243-A260-52FB44822039}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -15684,66 +12519,48 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>巴西!$B$2:$B$8</c:f>
+              <c:f>俄罗斯!$B$2:$B$5</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1984-12-03</c:v>
+                  <c:v>1992-07-01</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1992-05-05</c:v>
+                  <c:v>1995-07-05</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1994-07-01</c:v>
+                  <c:v>1998-08-17</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1999-02-01</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2008-04-30</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2008-09-01</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2009-05-27</c:v>
+                  <c:v>2014-11-10</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>巴西!$H$2:$H$8</c:f>
+              <c:f>俄罗斯!$H$2:$H$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>7.4715317032288406E-3</c:v>
+                  <c:v>4.9122786692222401E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3046715710908409E-2</c:v>
+                  <c:v>1.369072993707194E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.7349539972745966E-4</c:v>
+                  <c:v>5.3905850503740949E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.8559884090709803E-5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-1.8311937432317657E-4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.5042002020284673E-3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.1021885424448761E-4</c:v>
+                  <c:v>4.4729683104368495E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000001C-2165-CD47-A1E5-65A269EA396F}"/>
+              <c16:uniqueId val="{00000000-F169-B24F-A011-729C43B68B7C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -16236,7 +13053,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>巴西!$I$1</c:f>
+              <c:f>俄罗斯!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -16282,7 +13099,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-C96A-D84C-B579-4CBF7722B936}"/>
+                <c16:uniqueId val="{00000001-99B8-BA44-8CD2-203DE71BD8E8}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -16323,7 +13140,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-C96A-D84C-B579-4CBF7722B936}"/>
+                <c16:uniqueId val="{00000003-99B8-BA44-8CD2-203DE71BD8E8}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -16364,7 +13181,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-C96A-D84C-B579-4CBF7722B936}"/>
+                <c16:uniqueId val="{00000005-99B8-BA44-8CD2-203DE71BD8E8}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -16405,7 +13222,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-C96A-D84C-B579-4CBF7722B936}"/>
+                <c16:uniqueId val="{00000007-99B8-BA44-8CD2-203DE71BD8E8}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -16446,7 +13263,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-C96A-D84C-B579-4CBF7722B936}"/>
+                <c16:uniqueId val="{00000009-99B8-BA44-8CD2-203DE71BD8E8}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -16487,7 +13304,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000B-C96A-D84C-B579-4CBF7722B936}"/>
+                <c16:uniqueId val="{0000000B-99B8-BA44-8CD2-203DE71BD8E8}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -16531,7 +13348,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000D-C96A-D84C-B579-4CBF7722B936}"/>
+                <c16:uniqueId val="{0000000D-99B8-BA44-8CD2-203DE71BD8E8}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -16575,7 +13392,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000F-C96A-D84C-B579-4CBF7722B936}"/>
+                <c16:uniqueId val="{0000000F-99B8-BA44-8CD2-203DE71BD8E8}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -16619,7 +13436,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000011-C96A-D84C-B579-4CBF7722B936}"/>
+                <c16:uniqueId val="{00000011-99B8-BA44-8CD2-203DE71BD8E8}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -16663,7 +13480,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000013-C96A-D84C-B579-4CBF7722B936}"/>
+                <c16:uniqueId val="{00000013-99B8-BA44-8CD2-203DE71BD8E8}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -16707,7 +13524,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000015-C96A-D84C-B579-4CBF7722B936}"/>
+                <c16:uniqueId val="{00000015-99B8-BA44-8CD2-203DE71BD8E8}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -16751,7 +13568,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000017-C96A-D84C-B579-4CBF7722B936}"/>
+                <c16:uniqueId val="{00000017-99B8-BA44-8CD2-203DE71BD8E8}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -16806,66 +13623,48 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>巴西!$B$2:$B$8</c:f>
+              <c:f>俄罗斯!$B$2:$B$5</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1984-12-03</c:v>
+                  <c:v>1992-07-01</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1992-05-05</c:v>
+                  <c:v>1995-07-05</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1994-07-01</c:v>
+                  <c:v>1998-08-17</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1999-02-01</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2008-04-30</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2008-09-01</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2009-05-27</c:v>
+                  <c:v>2014-11-10</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>巴西!$I$2:$I$8</c:f>
+              <c:f>俄罗斯!$I$2:$I$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.0405304375691399E-4</c:v>
+                  <c:v>7.109254017997823E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0411368544420786E-5</c:v>
+                  <c:v>3.908068722479812E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.0465449229345148E-5</c:v>
+                  <c:v>1.7500487117332473E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.509576951209591E-4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.621366323253552E-5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.6799804599312869E-4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9.0594284530824825E-5</c:v>
+                  <c:v>1.9626874068381413E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000018-C96A-D84C-B579-4CBF7722B936}"/>
+              <c16:uniqueId val="{00000018-99B8-BA44-8CD2-203DE71BD8E8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -17010,7 +13809,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>俄罗斯!$D$1</c:f>
+              <c:f>巴西!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -17090,78 +13889,48 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>俄罗斯!$B$2:$B$10</c:f>
+              <c:f>巴西!$B$2:$B$5</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1992-07-01</c:v>
+                  <c:v>1984-12-03</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1995-07-05</c:v>
+                  <c:v>1992-05-05</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1998-08-17</c:v>
+                  <c:v>1994-07-01</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1998-09-09</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2001-01-02</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2006-03-01</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2008-06-02</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2010-01-04</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2014-11-10</c:v>
+                  <c:v>1999-02-01</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>俄罗斯!$D$2:$D$10</c:f>
+              <c:f>巴西!$D$2:$D$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.8553255031847133</c:v>
+                  <c:v>5.0529356025352114E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.4294217391304347</c:v>
+                  <c:v>0.10915407928547491</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.134944444444445</c:v>
+                  <c:v>1.029466</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25.222027993277312</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>29.627023179894181</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>25.808154304878048</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>29.401718678921569</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>31.666344918138041</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>62.028496283286117</c:v>
+                  <c:v>2.4480304875889844</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4B8D-0E45-9AEA-06EC14518C10}"/>
+              <c16:uniqueId val="{00000000-1951-F042-82D3-39A6D3C89A17}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -17387,7 +14156,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>俄罗斯!$E$1</c:f>
+              <c:f>巴西!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -17407,7 +14176,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:numFmt formatCode="#,##0.00_);[Red]\(#,##0.00\)" sourceLinked="0"/>
+            <c:numFmt formatCode="#,##0.000_);[Red]\(#,##0.000\)" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -17467,78 +14236,48 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>俄罗斯!$B$2:$B$10</c:f>
+              <c:f>巴西!$B$2:$B$5</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1992-07-01</c:v>
+                  <c:v>1984-12-03</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1995-07-05</c:v>
+                  <c:v>1992-05-05</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1998-08-17</c:v>
+                  <c:v>1994-07-01</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1998-09-09</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2001-01-02</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2006-03-01</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2008-06-02</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2010-01-04</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2014-11-10</c:v>
+                  <c:v>1999-02-01</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>俄罗斯!$E$2:$E$10</c:f>
+              <c:f>巴西!$E$2:$E$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2.1918512019931455</c:v>
+                  <c:v>1.8653909840847539E-8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.3330197289422453</c:v>
+                  <c:v>4.1080112747907203E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20.921184619084965</c:v>
+                  <c:v>1.6050488703742385E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14.627635637361868</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.6189765883931553</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.4251812563053152</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>13.112221978566218</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7.2422471067848724</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>33.510939315539886</c:v>
+                  <c:v>0.44221160405420995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-56A8-EB42-A0FF-9904D91E4690}"/>
+              <c16:uniqueId val="{00000000-0F52-AA4B-80EB-4389D6B1D264}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -17764,7 +14503,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>俄罗斯!$F$1</c:f>
+              <c:f>巴西!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -17844,78 +14583,48 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>俄罗斯!$B$2:$B$10</c:f>
+              <c:f>巴西!$B$2:$B$5</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1992-07-01</c:v>
+                  <c:v>1984-12-03</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1995-07-05</c:v>
+                  <c:v>1992-05-05</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1998-08-17</c:v>
+                  <c:v>1994-07-01</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1998-09-09</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2001-01-02</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2006-03-01</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2008-06-02</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2010-01-04</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2014-11-10</c:v>
+                  <c:v>1999-02-01</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>俄罗斯!$F$2:$F$10</c:f>
+              <c:f>巴西!$F$2:$F$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>5.628494897959184E-3</c:v>
+                  <c:v>4.8028112399783309E-7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.1763975155279502E-3</c:v>
+                  <c:v>1.1435424617524926E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.80847222222222215</c:v>
+                  <c:v>1.8418617109725678E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.6415047058823531E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-4.42392290249435E-4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-7.6606445993031378E-3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.5359666666666666E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.2680699839486357E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.2129456090651558E-2</c:v>
+                  <c:v>3.2440201492957445E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3868-AB4C-851C-F6886191DDD7}"/>
+              <c16:uniqueId val="{00000000-C4F7-DF46-9E8E-B324057B189F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -18141,7 +14850,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>俄罗斯!$G$1</c:f>
+              <c:f>巴西!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -18221,78 +14930,48 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>俄罗斯!$B$2:$B$10</c:f>
+              <c:f>巴西!$B$2:$B$5</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1992-07-01</c:v>
+                  <c:v>1984-12-03</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1995-07-05</c:v>
+                  <c:v>1992-05-05</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1998-08-17</c:v>
+                  <c:v>1994-07-01</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1998-09-09</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2001-01-02</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2006-03-01</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2008-06-02</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2010-01-04</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2014-11-10</c:v>
+                  <c:v>1999-02-01</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>俄罗斯!$G$2:$G$10</c:f>
+              <c:f>巴西!$G$2:$G$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>3.1342106603115955E-3</c:v>
+                  <c:v>2.334947825168632E-12</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.0087626309446507E-5</c:v>
+                  <c:v>2.7372778265144791E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0249806103594765</c:v>
+                  <c:v>6.9653697943493744E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.17809843289568461</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.8615049672310092E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.2280221385471153E-3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.6066402162743648E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.072516649447528E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.77825662838223886</c:v>
+                  <c:v>9.3999910972806155E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F904-0443-AE98-32F9A141E17B}"/>
+              <c16:uniqueId val="{00000000-E621-F741-A281-BAEAAAF37240}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -18518,7 +15197,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>俄罗斯!$H$1</c:f>
+              <c:f>巴西!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -18538,7 +15217,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:numFmt formatCode="0.000%" sourceLinked="0"/>
+            <c:numFmt formatCode="0.00%" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -18598,78 +15277,48 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>俄罗斯!$B$2:$B$10</c:f>
+              <c:f>巴西!$B$2:$B$5</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1992-07-01</c:v>
+                  <c:v>1984-12-03</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1995-07-05</c:v>
+                  <c:v>1992-05-05</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1998-08-17</c:v>
+                  <c:v>1994-07-01</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1998-09-09</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2001-01-02</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2006-03-01</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2008-06-02</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2010-01-04</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2014-11-10</c:v>
+                  <c:v>1999-02-01</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>俄罗斯!$H$2:$H$10</c:f>
+              <c:f>巴西!$H$2:$H$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>4.9143282327158144E-3</c:v>
+                  <c:v>7.4722358493339944E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.0633622663150982E-4</c:v>
+                  <c:v>3.4283581938123428E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.1676729633943878E-2</c:v>
+                  <c:v>2.0268329499284054E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0679677383155545E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-1.389681060313478E-5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-2.928946410410973E-4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.096848590393584E-4</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.5578439889111566E-4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.847354279537958E-4</c:v>
+                  <c:v>1.823750163061972E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-BC8A-A647-8569-BB802F547246}"/>
+              <c16:uniqueId val="{00000000-9611-CA4A-A2B8-4270C34E3C71}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -18895,7 +15544,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>俄罗斯!$I$1</c:f>
+              <c:f>巴西!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -18975,78 +15624,48 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>俄罗斯!$B$2:$B$10</c:f>
+              <c:f>巴西!$B$2:$B$5</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1992-07-01</c:v>
+                  <c:v>1984-12-03</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1995-07-05</c:v>
+                  <c:v>1992-05-05</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1998-08-17</c:v>
+                  <c:v>1994-07-01</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1998-09-09</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2001-01-02</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2006-03-01</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2008-06-02</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2010-01-04</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2014-11-10</c:v>
+                  <c:v>1999-02-01</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>俄罗斯!$I$2:$I$10</c:f>
+              <c:f>巴西!$I$2:$I$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>7.1183005073531351E-4</c:v>
+                  <c:v>1.0399756173015186E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3895900652355953E-6</c:v>
+                  <c:v>1.0885279249786554E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.4687115469033588E-3</c:v>
+                  <c:v>1.166190028328836E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.2239173342162515E-4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.3726793252539017E-6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.4681832822576601E-6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.894581995586537E-5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.8641555245928423E-5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.966258373470789E-4</c:v>
+                  <c:v>1.3458438911343864E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9E37-7040-99B8-48C98E4ADE86}"/>
+              <c16:uniqueId val="{00000000-738D-2644-BB35-E3F54AC61AAB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -19231,6 +15850,28 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN"/>
+              <a:t>样本均值</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -19267,7 +15908,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>俄罗斯!$D$1</c:f>
+              <c:f>巴西!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -19313,7 +15954,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-F33F-794A-90BB-63F2EB77551E}"/>
+                <c16:uniqueId val="{00000001-FBCC-354C-8237-BEE8BE9AB76A}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -19354,7 +15995,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-F33F-794A-90BB-63F2EB77551E}"/>
+                <c16:uniqueId val="{00000003-FBCC-354C-8237-BEE8BE9AB76A}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -19395,7 +16036,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-F33F-794A-90BB-63F2EB77551E}"/>
+                <c16:uniqueId val="{00000005-FBCC-354C-8237-BEE8BE9AB76A}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -19436,7 +16077,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-F33F-794A-90BB-63F2EB77551E}"/>
+                <c16:uniqueId val="{00000007-FBCC-354C-8237-BEE8BE9AB76A}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -19477,7 +16118,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-F33F-794A-90BB-63F2EB77551E}"/>
+                <c16:uniqueId val="{00000009-FBCC-354C-8237-BEE8BE9AB76A}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -19518,7 +16159,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000B-F33F-794A-90BB-63F2EB77551E}"/>
+                <c16:uniqueId val="{0000000B-FBCC-354C-8237-BEE8BE9AB76A}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -19562,7 +16203,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000D-F33F-794A-90BB-63F2EB77551E}"/>
+                <c16:uniqueId val="{0000000D-FBCC-354C-8237-BEE8BE9AB76A}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -19606,7 +16247,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000F-F33F-794A-90BB-63F2EB77551E}"/>
+                <c16:uniqueId val="{0000000F-FBCC-354C-8237-BEE8BE9AB76A}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -19650,7 +16291,139 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000011-F33F-794A-90BB-63F2EB77551E}"/>
+                <c16:uniqueId val="{00000011-FBCC-354C-8237-BEE8BE9AB76A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-FBCC-354C-8237-BEE8BE9AB76A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000015-FBCC-354C-8237-BEE8BE9AB76A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000017-FBCC-354C-8237-BEE8BE9AB76A}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -19705,78 +16478,48 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>俄罗斯!$B$2:$B$10</c:f>
+              <c:f>巴西!$B$2:$B$5</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1992-07-01</c:v>
+                  <c:v>1984-12-03</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1995-07-05</c:v>
+                  <c:v>1992-05-05</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1998-08-17</c:v>
+                  <c:v>1994-07-01</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1998-09-09</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2001-01-02</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2006-03-01</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2008-06-02</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2010-01-04</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2014-11-10</c:v>
+                  <c:v>1999-02-01</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>俄罗斯!$D$2:$D$10</c:f>
+              <c:f>巴西!$D$2:$D$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.8553255031847133</c:v>
+                  <c:v>5.0529356025352114E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.4294217391304347</c:v>
+                  <c:v>0.10915407928547491</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.134944444444445</c:v>
+                  <c:v>1.029466</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25.222027993277312</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>29.627023179894181</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>25.808154304878048</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>29.401718678921569</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>31.666344918138041</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>62.028496283286117</c:v>
+                  <c:v>2.4480304875889844</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8BF5-6D46-BE27-7E2842B1D660}"/>
+              <c16:uniqueId val="{00000018-FBCC-354C-8237-BEE8BE9AB76A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -19916,7 +16659,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>俄罗斯!$E$1</c:f>
+              <c:f>巴西!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -19962,7 +16705,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-BEC7-BF48-A9E7-6A6C98A6CAE0}"/>
+                <c16:uniqueId val="{00000001-EF4C-5149-9E14-8DD5BA73CD6B}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -20003,7 +16746,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-BEC7-BF48-A9E7-6A6C98A6CAE0}"/>
+                <c16:uniqueId val="{00000003-EF4C-5149-9E14-8DD5BA73CD6B}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -20044,7 +16787,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-BEC7-BF48-A9E7-6A6C98A6CAE0}"/>
+                <c16:uniqueId val="{00000005-EF4C-5149-9E14-8DD5BA73CD6B}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -20085,7 +16828,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-BEC7-BF48-A9E7-6A6C98A6CAE0}"/>
+                <c16:uniqueId val="{00000007-EF4C-5149-9E14-8DD5BA73CD6B}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -20126,7 +16869,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-BEC7-BF48-A9E7-6A6C98A6CAE0}"/>
+                <c16:uniqueId val="{00000009-EF4C-5149-9E14-8DD5BA73CD6B}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -20167,7 +16910,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000B-BEC7-BF48-A9E7-6A6C98A6CAE0}"/>
+                <c16:uniqueId val="{0000000B-EF4C-5149-9E14-8DD5BA73CD6B}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -20211,7 +16954,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000D-BEC7-BF48-A9E7-6A6C98A6CAE0}"/>
+                <c16:uniqueId val="{0000000D-EF4C-5149-9E14-8DD5BA73CD6B}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -20255,7 +16998,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000F-BEC7-BF48-A9E7-6A6C98A6CAE0}"/>
+                <c16:uniqueId val="{0000000F-EF4C-5149-9E14-8DD5BA73CD6B}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -20299,7 +17042,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000011-BEC7-BF48-A9E7-6A6C98A6CAE0}"/>
+                <c16:uniqueId val="{00000011-EF4C-5149-9E14-8DD5BA73CD6B}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -20343,7 +17086,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000013-BEC7-BF48-A9E7-6A6C98A6CAE0}"/>
+                <c16:uniqueId val="{00000013-EF4C-5149-9E14-8DD5BA73CD6B}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -20387,7 +17130,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000015-BEC7-BF48-A9E7-6A6C98A6CAE0}"/>
+                <c16:uniqueId val="{00000015-EF4C-5149-9E14-8DD5BA73CD6B}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -20431,7 +17174,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000017-BEC7-BF48-A9E7-6A6C98A6CAE0}"/>
+                <c16:uniqueId val="{00000017-EF4C-5149-9E14-8DD5BA73CD6B}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -20486,78 +17229,48 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>俄罗斯!$B$2:$B$10</c:f>
+              <c:f>巴西!$B$2:$B$5</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1992-07-01</c:v>
+                  <c:v>1984-12-03</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1995-07-05</c:v>
+                  <c:v>1992-05-05</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1998-08-17</c:v>
+                  <c:v>1994-07-01</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1998-09-09</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2001-01-02</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2006-03-01</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2008-06-02</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2010-01-04</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2014-11-10</c:v>
+                  <c:v>1999-02-01</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>俄罗斯!$E$2:$E$10</c:f>
+              <c:f>巴西!$E$2:$E$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2.1918512019931455</c:v>
+                  <c:v>1.8653909840847539E-8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.3330197289422453</c:v>
+                  <c:v>4.1080112747907203E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20.921184619084965</c:v>
+                  <c:v>1.6050488703742385E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14.627635637361868</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.6189765883931553</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.4251812563053152</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>13.112221978566218</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7.2422471067848724</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>33.510939315539886</c:v>
+                  <c:v>0.44221160405420995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000018-BEC7-BF48-A9E7-6A6C98A6CAE0}"/>
+              <c16:uniqueId val="{00000018-EF4C-5149-9E14-8DD5BA73CD6B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -20661,6 +17374,28 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN"/>
+              <a:t>样本变化率均值</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -20697,7 +17432,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>俄罗斯!$H$1</c:f>
+              <c:f>巴西!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -20743,7 +17478,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-619D-0243-A260-52FB44822039}"/>
+                <c16:uniqueId val="{00000001-369D-F54D-B284-8F18B835EB43}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -20784,7 +17519,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-619D-0243-A260-52FB44822039}"/>
+                <c16:uniqueId val="{00000003-369D-F54D-B284-8F18B835EB43}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -20825,7 +17560,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-619D-0243-A260-52FB44822039}"/>
+                <c16:uniqueId val="{00000005-369D-F54D-B284-8F18B835EB43}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -20866,7 +17601,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-619D-0243-A260-52FB44822039}"/>
+                <c16:uniqueId val="{00000007-369D-F54D-B284-8F18B835EB43}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -20907,7 +17642,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-619D-0243-A260-52FB44822039}"/>
+                <c16:uniqueId val="{00000009-369D-F54D-B284-8F18B835EB43}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -20948,7 +17683,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000B-619D-0243-A260-52FB44822039}"/>
+                <c16:uniqueId val="{0000000B-369D-F54D-B284-8F18B835EB43}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -20992,7 +17727,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000D-619D-0243-A260-52FB44822039}"/>
+                <c16:uniqueId val="{0000000D-369D-F54D-B284-8F18B835EB43}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -21036,7 +17771,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000F-619D-0243-A260-52FB44822039}"/>
+                <c16:uniqueId val="{0000000F-369D-F54D-B284-8F18B835EB43}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -21080,7 +17815,186 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000011-619D-0243-A260-52FB44822039}"/>
+                <c16:uniqueId val="{00000011-369D-F54D-B284-8F18B835EB43}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-369D-F54D-B284-8F18B835EB43}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000015-369D-F54D-B284-8F18B835EB43}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000017-369D-F54D-B284-8F18B835EB43}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="12"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000019-369D-F54D-B284-8F18B835EB43}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -21135,78 +18049,48 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>俄罗斯!$B$2:$B$10</c:f>
+              <c:f>巴西!$B$2:$B$5</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1992-07-01</c:v>
+                  <c:v>1984-12-03</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1995-07-05</c:v>
+                  <c:v>1992-05-05</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1998-08-17</c:v>
+                  <c:v>1994-07-01</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1998-09-09</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2001-01-02</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2006-03-01</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2008-06-02</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2010-01-04</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2014-11-10</c:v>
+                  <c:v>1999-02-01</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>俄罗斯!$H$2:$H$10</c:f>
+              <c:f>巴西!$H$2:$H$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>4.9143282327158144E-3</c:v>
+                  <c:v>7.4722358493339944E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.0633622663150982E-4</c:v>
+                  <c:v>3.4283581938123428E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.1676729633943878E-2</c:v>
+                  <c:v>2.0268329499284054E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0679677383155545E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-1.389681060313478E-5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-2.928946410410973E-4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.096848590393584E-4</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.5578439889111566E-4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.847354279537958E-4</c:v>
+                  <c:v>1.823750163061972E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F169-B24F-A011-729C43B68B7C}"/>
+              <c16:uniqueId val="{0000001A-369D-F54D-B284-8F18B835EB43}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -21699,7 +18583,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>俄罗斯!$I$1</c:f>
+              <c:f>巴西!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -21745,7 +18629,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-99B8-BA44-8CD2-203DE71BD8E8}"/>
+                <c16:uniqueId val="{00000001-0746-C04B-975E-C44FB43F506A}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -21786,7 +18670,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-99B8-BA44-8CD2-203DE71BD8E8}"/>
+                <c16:uniqueId val="{00000003-0746-C04B-975E-C44FB43F506A}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -21827,7 +18711,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-99B8-BA44-8CD2-203DE71BD8E8}"/>
+                <c16:uniqueId val="{00000005-0746-C04B-975E-C44FB43F506A}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -21868,7 +18752,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-99B8-BA44-8CD2-203DE71BD8E8}"/>
+                <c16:uniqueId val="{00000007-0746-C04B-975E-C44FB43F506A}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -21909,7 +18793,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-99B8-BA44-8CD2-203DE71BD8E8}"/>
+                <c16:uniqueId val="{00000009-0746-C04B-975E-C44FB43F506A}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -21950,7 +18834,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000B-99B8-BA44-8CD2-203DE71BD8E8}"/>
+                <c16:uniqueId val="{0000000B-0746-C04B-975E-C44FB43F506A}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -21994,7 +18878,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000D-99B8-BA44-8CD2-203DE71BD8E8}"/>
+                <c16:uniqueId val="{0000000D-0746-C04B-975E-C44FB43F506A}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -22038,7 +18922,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000F-99B8-BA44-8CD2-203DE71BD8E8}"/>
+                <c16:uniqueId val="{0000000F-0746-C04B-975E-C44FB43F506A}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -22082,7 +18966,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000011-99B8-BA44-8CD2-203DE71BD8E8}"/>
+                <c16:uniqueId val="{00000011-0746-C04B-975E-C44FB43F506A}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -22126,7 +19010,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000013-99B8-BA44-8CD2-203DE71BD8E8}"/>
+                <c16:uniqueId val="{00000013-0746-C04B-975E-C44FB43F506A}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -22170,7 +19054,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000015-99B8-BA44-8CD2-203DE71BD8E8}"/>
+                <c16:uniqueId val="{00000015-0746-C04B-975E-C44FB43F506A}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -22214,7 +19098,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000017-99B8-BA44-8CD2-203DE71BD8E8}"/>
+                <c16:uniqueId val="{00000017-0746-C04B-975E-C44FB43F506A}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -22269,78 +19153,48 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>俄罗斯!$B$2:$B$10</c:f>
+              <c:f>巴西!$B$2:$B$5</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1992-07-01</c:v>
+                  <c:v>1984-12-03</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1995-07-05</c:v>
+                  <c:v>1992-05-05</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1998-08-17</c:v>
+                  <c:v>1994-07-01</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1998-09-09</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2001-01-02</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2006-03-01</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2008-06-02</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2010-01-04</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2014-11-10</c:v>
+                  <c:v>1999-02-01</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>俄罗斯!$I$2:$I$10</c:f>
+              <c:f>巴西!$I$2:$I$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>7.1183005073531351E-4</c:v>
+                  <c:v>1.0399756173015186E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3895900652355953E-6</c:v>
+                  <c:v>1.0885279249786554E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.4687115469033588E-3</c:v>
+                  <c:v>1.166190028328836E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.2239173342162515E-4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.3726793252539017E-6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.4681832822576601E-6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.894581995586537E-5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.8641555245928423E-5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.966258373470789E-4</c:v>
+                  <c:v>1.3458438911343864E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000018-99B8-BA44-8CD2-203DE71BD8E8}"/>
+              <c16:uniqueId val="{00000018-0746-C04B-975E-C44FB43F506A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -47475,391 +44329,6 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>154791</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>25399</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>534223</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>134525</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="图表 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{957088BF-12F4-5F45-A6B8-763467B563CF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>154791</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>124710</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>534223</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>45687</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="图表 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{259C8ECD-E773-2049-AC96-2C9ECD5F2B69}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>154791</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>35872</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>534223</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>144998</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="图表 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82BEFA55-9F86-B443-85AC-D99D3C990BB9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>154791</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>135183</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>534223</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>56161</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="图表 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFAECCEC-2BFF-9C4C-9E58-60F7EF5B3FD3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>154791</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>46346</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>534223</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>155472</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="图表 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A7902E9-BE70-5848-864D-CE0DFFDD42DA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>154791</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>145657</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>534223</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>66635</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="图表 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{124F6791-BA6A-6A4E-A200-236DE409BDF4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>16934</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1080347</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>72813</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="图表 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75E479C6-31AB-9C4C-A126-AEBFFA712CE4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>160867</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1063413</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>34714</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="图表 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFDE45AE-A93B-4F42-9A3C-86DFA14C92A3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>16934</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>249359</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>72813</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="10" name="图表 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{828B4778-D345-324C-B086-953CE29FBAB3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>160866</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>232425</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>34713</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="11" name="图表 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8821AF20-6804-B349-8763-BE7BF3F736C5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
       <xdr:colOff>116927</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>38099</xdr:rowOff>
@@ -48240,6 +44709,391 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>154791</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>25399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>534223</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>134525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{232181E8-F716-1E43-99B4-A379F18F0BE1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>154791</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>124710</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>534223</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>45687</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E596E329-0ABA-EF47-99FF-AB1AB5E2416E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>154791</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>35872</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>534223</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>144998</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="图表 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6800ADAD-C8A6-F047-859C-7A601EFE5698}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>154791</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>135183</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>534223</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>56161</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="图表 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72342294-1ABD-A344-9245-6879F6881F48}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>154791</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>46346</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>534223</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>155472</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="图表 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{777F21FD-2B70-7447-9738-D092718668C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>154791</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>145657</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>534223</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>66635</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="图表 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81B5A3E6-DDF6-8F47-A8C7-5EE74A4AA7D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>16934</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1080347</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>72813</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="图表 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7B4658A-061C-664E-B959-D10A874629F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>160867</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1063413</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>34714</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="图表 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8AE2A54-ACF7-9649-BDDB-4FADD224002A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>16934</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>249359</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>72813</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="图表 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3DABD75-09E5-0A45-8DC0-DD9F94B252A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>160866</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>232425</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>34713</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="图表 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E996A3FC-D03E-9E41-B351-CFE4A8CD8D3B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
@@ -48562,22 +45416,22 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="E1" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="F1" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="G1" t="s">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="H1" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="I1" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -48585,10 +45439,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D2">
         <v>3.5805895196506552</v>
@@ -48614,10 +45468,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D3">
         <v>8.3261618937115518</v>
@@ -48643,10 +45497,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D4">
         <v>6.8243087661227664</v>
@@ -48672,10 +45526,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D5">
         <v>6.6300007313769749</v>
@@ -48701,10 +45555,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D6">
         <v>6.6497161756440279</v>
@@ -48735,10 +45589,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5634B652-5924-944D-B566-42E619FECB77}">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -48761,22 +45615,22 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -48784,10 +45638,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="D2">
         <v>7.9455735294117646</v>
@@ -48813,10 +45667,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="D3">
         <v>11.944825072886298</v>
@@ -48842,10 +45696,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="D4">
         <v>40.3408590697561</v>
@@ -48871,289 +45725,28 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="D5">
-        <v>25.760421686746987</v>
+        <v>57.050778578485179</v>
       </c>
       <c r="E5">
-        <v>0.37672891201168324</v>
+        <v>78.726211788701562</v>
       </c>
       <c r="F5">
-        <v>3.078313253012048E-2</v>
+        <v>1.086814207450694E-2</v>
       </c>
       <c r="G5">
-        <v>9.7323625410733888E-2</v>
+        <v>8.0908705991907096E-2</v>
       </c>
       <c r="H5">
-        <v>1.3935160028817626E-3</v>
+        <v>2.1451676324844678E-4</v>
       </c>
       <c r="I5">
-        <v>1.8478804431285099E-4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6">
-        <v>28.71584</v>
-      </c>
-      <c r="E6">
-        <v>0.27042037590361445</v>
-      </c>
-      <c r="F6">
-        <v>1.8079999999999999E-2</v>
-      </c>
-      <c r="G6">
-        <v>2.1057342971887529E-2</v>
-      </c>
-      <c r="H6">
-        <v>6.6076301598905066E-4</v>
-      </c>
-      <c r="I6">
-        <v>2.8036651347241256E-5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7">
-        <v>31.518558333333335</v>
-      </c>
-      <c r="E7">
-        <v>3.9285807172701831E-2</v>
-      </c>
-      <c r="F7">
-        <v>2.7583333333333392E-3</v>
-      </c>
-      <c r="G7">
-        <v>3.3910657311977711E-2</v>
-      </c>
-      <c r="H7">
-        <v>1.0645211481879921E-4</v>
-      </c>
-      <c r="I7">
-        <v>3.6368545643955333E-5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8">
-        <v>33.914163487738421</v>
-      </c>
-      <c r="E8">
-        <v>4.1212156512707656</v>
-      </c>
-      <c r="F8">
-        <v>6.1035422343324259E-3</v>
-      </c>
-      <c r="G8">
-        <v>1.9941869209809237E-2</v>
-      </c>
-      <c r="H8">
-        <v>1.8997351588617456E-4</v>
-      </c>
-      <c r="I8">
-        <v>1.6271920910143032E-5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9">
-        <v>39.849182058047496</v>
-      </c>
-      <c r="E9">
-        <v>6.5959597048624214</v>
-      </c>
-      <c r="F9">
-        <v>1.765171503957785E-2</v>
-      </c>
-      <c r="G9">
-        <v>3.1309666736468865E-2</v>
-      </c>
-      <c r="H9">
-        <v>4.6182159586748264E-4</v>
-      </c>
-      <c r="I9">
-        <v>2.0143931892446294E-5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" t="s">
-        <v>74</v>
-      </c>
-      <c r="D10">
-        <v>43.290658008379886</v>
-      </c>
-      <c r="E10">
-        <v>0.21187554319447346</v>
-      </c>
-      <c r="F10">
-        <v>5.5572458100558676E-3</v>
-      </c>
-      <c r="G10">
-        <v>5.364836873407196E-3</v>
-      </c>
-      <c r="H10">
-        <v>1.2898669632849854E-4</v>
-      </c>
-      <c r="I10">
-        <v>2.8585041572486512E-6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11">
-        <v>47.163992108196723</v>
-      </c>
-      <c r="E11">
-        <v>1.4130231533019015</v>
-      </c>
-      <c r="F11">
-        <v>1.1211245901639362E-3</v>
-      </c>
-      <c r="G11">
-        <v>5.7492033482623396E-3</v>
-      </c>
-      <c r="H11">
-        <v>2.6203890705709475E-5</v>
-      </c>
-      <c r="I11">
-        <v>2.663289010046285E-6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12">
-        <v>43.965997211295033</v>
-      </c>
-      <c r="E12">
-        <v>4.0012440271919782</v>
-      </c>
-      <c r="F12">
-        <v>-6.0822035053554038E-3</v>
-      </c>
-      <c r="G12">
-        <v>1.8092137534450714E-2</v>
-      </c>
-      <c r="H12">
-        <v>-1.3885173946614132E-4</v>
-      </c>
-      <c r="I12">
-        <v>9.4978321870058453E-6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13">
-        <v>45.889126588693955</v>
-      </c>
-      <c r="E13">
-        <v>13.190103412778269</v>
-      </c>
-      <c r="F13">
-        <v>1.40585633528265E-2</v>
-      </c>
-      <c r="G13">
-        <v>8.4729862047453502E-2</v>
-      </c>
-      <c r="H13">
-        <v>3.4713773486083675E-4</v>
-      </c>
-      <c r="I13">
-        <v>3.7749923019801135E-5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" t="s">
-        <v>76</v>
-      </c>
-      <c r="B14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14">
-        <v>58.908046465277778</v>
-      </c>
-      <c r="E14">
-        <v>70.101888096157339</v>
-      </c>
-      <c r="F14">
-        <v>1.0100108940972222E-2</v>
-      </c>
-      <c r="G14">
-        <v>7.7550498912356769E-2</v>
-      </c>
-      <c r="H14">
-        <v>1.8655319890123831E-4</v>
-      </c>
-      <c r="I14">
-        <v>2.2582264372765011E-5</v>
+        <v>2.5796370682202552E-5</v>
       </c>
     </row>
   </sheetData>
@@ -49165,11 +45758,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF092A2E-740A-894E-8E86-FE2F08612109}">
-  <dimension ref="A1:I8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4028BAFE-FE72-9A41-8D36-69EEC9139129}">
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView topLeftCell="H42" zoomScale="125" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView topLeftCell="F8" zoomScale="125" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -49192,22 +45785,22 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -49215,28 +45808,28 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="D2">
-        <v>5.0529356025352114E-5</v>
+        <v>1.8553255031847133</v>
       </c>
       <c r="E2">
-        <v>1.8653909840847539E-8</v>
+        <v>2.1918512019931455</v>
       </c>
       <c r="F2">
-        <v>4.7636306991869921E-7</v>
+        <v>5.6404331210191082E-3</v>
       </c>
       <c r="G2">
-        <v>2.307860479279215E-12</v>
+        <v>3.1303248217509419E-3</v>
       </c>
       <c r="H2">
-        <v>7.4715317032288406E-3</v>
+        <v>4.9122786692222401E-3</v>
       </c>
       <c r="I2">
-        <v>1.0405304375691399E-4</v>
+        <v>7.109254017997823E-4</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -49244,28 +45837,28 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="D3">
-        <v>0.10915407928547491</v>
+        <v>5.4294217391304347</v>
       </c>
       <c r="E3">
-        <v>4.1080112747907203E-2</v>
+        <v>0.3330197289422453</v>
       </c>
       <c r="F3">
-        <v>1.7972854411271218E-3</v>
+        <v>1.5681185651353052E-2</v>
       </c>
       <c r="G3">
-        <v>1.3162306533244229E-5</v>
+        <v>8.2795057878482486E-2</v>
       </c>
       <c r="H3">
-        <v>1.3046715710908409E-2</v>
+        <v>1.369072993707194E-3</v>
       </c>
       <c r="I3">
-        <v>2.0411368544420786E-5</v>
+        <v>3.908068722479812E-4</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -49273,28 +45866,28 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="D4">
-        <v>1.029466</v>
+        <v>28.978326112046165</v>
       </c>
       <c r="E4">
-        <v>1.6050488703742385E-2</v>
+        <v>13.575495687567491</v>
       </c>
       <c r="F4">
-        <v>9.4680474308304332E-4</v>
+        <v>1.1637815970892378E-2</v>
       </c>
       <c r="G4">
-        <v>9.7633576942398931E-5</v>
+        <v>0.1994463991781544</v>
       </c>
       <c r="H4">
-        <v>6.7349539972745966E-4</v>
+        <v>5.3905850503740949E-4</v>
       </c>
       <c r="I4">
-        <v>5.0465449229345148E-5</v>
+        <v>1.7500487117332473E-4</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -49302,130 +45895,44 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="D5">
-        <v>2.3732482229848695</v>
+        <v>62.028496283286117</v>
       </c>
       <c r="E5">
-        <v>0.27192453380505688</v>
+        <v>33.510939315539886</v>
       </c>
       <c r="F5">
-        <v>-1.0331359709212527E-4</v>
+        <v>1.9665003759398496E-2</v>
       </c>
       <c r="G5">
-        <v>9.9976525803182779E-4</v>
+        <v>0.77722706304221822</v>
       </c>
       <c r="H5">
-        <v>1.8559884090709803E-5</v>
+        <v>4.4729683104368495E-4</v>
       </c>
       <c r="I5">
-        <v>1.509576951209591E-4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6">
-        <v>1.6213420389873818</v>
-      </c>
-      <c r="E6">
-        <v>1.0907849237266161E-3</v>
-      </c>
-      <c r="F6">
-        <v>-3.4771579710113609E-4</v>
-      </c>
-      <c r="G6">
-        <v>1.5085144861789421E-4</v>
-      </c>
-      <c r="H6">
-        <v>-1.8311937432317657E-4</v>
-      </c>
-      <c r="I6">
-        <v>5.621366323253552E-5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D7">
-        <v>2.2073386797832804</v>
-      </c>
-      <c r="E7">
-        <v>3.8502358855145288E-2</v>
-      </c>
-      <c r="F7">
-        <v>2.2276448650502671E-3</v>
-      </c>
-      <c r="G7">
-        <v>2.8304460325202299E-3</v>
-      </c>
-      <c r="H7">
-        <v>1.5042002020284673E-3</v>
-      </c>
-      <c r="I7">
-        <v>5.6799804599312869E-4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8">
-        <v>2.5668984673335067</v>
-      </c>
-      <c r="E8">
-        <v>0.60405461626600998</v>
-      </c>
-      <c r="F8">
-        <v>7.5494971104902455E-4</v>
-      </c>
-      <c r="G8">
-        <v>7.7096704484404916E-4</v>
-      </c>
-      <c r="H8">
-        <v>3.1021885424448761E-4</v>
-      </c>
-      <c r="I8">
-        <v>9.0594284530824825E-5</v>
+        <v>1.9626874068381413E-4</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4028BAFE-FE72-9A41-8D36-69EEC9139129}">
-  <dimension ref="A1:I10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C489184-7012-DA49-892D-474E285C9C62}">
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="67" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -49448,22 +45955,22 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -49471,28 +45978,28 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="D2">
-        <v>1.8553255031847133</v>
+        <v>5.0529356025352114E-5</v>
       </c>
       <c r="E2">
-        <v>2.1918512019931455</v>
+        <v>1.8653909840847539E-8</v>
       </c>
       <c r="F2">
-        <v>5.628494897959184E-3</v>
+        <v>4.8028112399783309E-7</v>
       </c>
       <c r="G2">
-        <v>3.1342106603115955E-3</v>
+        <v>2.334947825168632E-12</v>
       </c>
       <c r="H2">
-        <v>4.9143282327158144E-3</v>
+        <v>7.4722358493339944E-3</v>
       </c>
       <c r="I2">
-        <v>7.1183005073531351E-4</v>
+        <v>1.0399756173015186E-4</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -49500,28 +46007,28 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="D3">
-        <v>5.4294217391304347</v>
+        <v>0.10915407928547491</v>
       </c>
       <c r="E3">
-        <v>0.3330197289422453</v>
+        <v>4.1080112747907203E-2</v>
       </c>
       <c r="F3">
-        <v>2.1763975155279502E-3</v>
+        <v>1.1435424617524926E-3</v>
       </c>
       <c r="G3">
-        <v>3.0087626309446507E-5</v>
+        <v>2.7372778265144791E-4</v>
       </c>
       <c r="H3">
-        <v>4.0633622663150982E-4</v>
+        <v>3.4283581938123428E-3</v>
       </c>
       <c r="I3">
-        <v>1.3895900652355953E-6</v>
+        <v>1.0885279249786554E-4</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -49529,28 +46036,28 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="D4">
-        <v>10.134944444444445</v>
+        <v>1.029466</v>
       </c>
       <c r="E4">
-        <v>20.921184619084965</v>
+        <v>1.6050488703742385E-2</v>
       </c>
       <c r="F4">
-        <v>0.80847222222222215</v>
+        <v>1.8418617109725678E-4</v>
       </c>
       <c r="G4">
-        <v>1.0249806103594765</v>
+        <v>6.9653697943493744E-4</v>
       </c>
       <c r="H4">
-        <v>7.1676729633943878E-2</v>
+        <v>2.0268329499284054E-4</v>
       </c>
       <c r="I4">
-        <v>6.4687115469033588E-3</v>
+        <v>1.166190028328836E-4</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -49558,179 +46065,33 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="D5">
-        <v>25.222027993277312</v>
+        <v>2.4480304875889844</v>
       </c>
       <c r="E5">
-        <v>14.627635637361868</v>
+        <v>0.44221160405420995</v>
       </c>
       <c r="F5">
-        <v>1.6415047058823531E-2</v>
+        <v>3.2440201492957445E-4</v>
       </c>
       <c r="G5">
-        <v>0.17809843289568461</v>
+        <v>9.3999910972806155E-4</v>
       </c>
       <c r="H5">
-        <v>1.0679677383155545E-3</v>
+        <v>1.823750163061972E-4</v>
       </c>
       <c r="I5">
-        <v>7.2239173342162515E-4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D6">
-        <v>29.627023179894181</v>
-      </c>
-      <c r="E6">
-        <v>1.6189765883931553</v>
-      </c>
-      <c r="F6">
-        <v>-4.42392290249435E-4</v>
-      </c>
-      <c r="G6">
-        <v>2.8615049672310092E-3</v>
-      </c>
-      <c r="H6">
-        <v>-1.389681060313478E-5</v>
-      </c>
-      <c r="I6">
-        <v>3.3726793252539017E-6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D7">
-        <v>25.808154304878048</v>
-      </c>
-      <c r="E7">
-        <v>1.4251812563053152</v>
-      </c>
-      <c r="F7">
-        <v>-7.6606445993031378E-3</v>
-      </c>
-      <c r="G7">
-        <v>4.2280221385471153E-3</v>
-      </c>
-      <c r="H7">
-        <v>-2.928946410410973E-4</v>
-      </c>
-      <c r="I7">
-        <v>6.4681832822576601E-6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8">
-        <v>29.401718678921569</v>
-      </c>
-      <c r="E8">
-        <v>13.112221978566218</v>
-      </c>
-      <c r="F8">
-        <v>1.5359666666666666E-2</v>
-      </c>
-      <c r="G8">
-        <v>6.6066402162743648E-2</v>
-      </c>
-      <c r="H8">
-        <v>6.096848590393584E-4</v>
-      </c>
-      <c r="I8">
-        <v>6.894581995586537E-5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" t="s">
-        <v>71</v>
-      </c>
-      <c r="D9">
-        <v>31.666344918138041</v>
-      </c>
-      <c r="E9">
-        <v>7.2422471067848724</v>
-      </c>
-      <c r="F9">
-        <v>1.2680699839486357E-2</v>
-      </c>
-      <c r="G9">
-        <v>4.072516649447528E-2</v>
-      </c>
-      <c r="H9">
-        <v>3.5578439889111566E-4</v>
-      </c>
-      <c r="I9">
-        <v>3.8641555245928423E-5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>64</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10">
-        <v>62.028496283286117</v>
-      </c>
-      <c r="E10">
-        <v>33.510939315539886</v>
-      </c>
-      <c r="F10">
-        <v>2.2129456090651558E-2</v>
-      </c>
-      <c r="G10">
-        <v>0.77825662838223886</v>
-      </c>
-      <c r="H10">
-        <v>4.847354279537958E-4</v>
-      </c>
-      <c r="I10">
-        <v>1.966258373470789E-4</v>
+        <v>1.3458438911343864E-4</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/金砖四国汇率数据指标结果_BIS__根据导师给的划分区间_2019-03.xlsx
+++ b/data/金砖四国汇率数据指标结果_BIS__根据导师给的划分区间_2019-03.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ethan/Documents/Ethan/CoreFiles/CodesFile/MoneyMismatch/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABED1A6F-7557-B14E-9503-EDD71B96203E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CC16E25-B55C-1747-9B4C-99C8E32797D7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33600" yWindow="-3160" windowWidth="51200" windowHeight="28340" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="59200" yWindow="11000" windowWidth="25600" windowHeight="14180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="中国" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,53 @@
     <sheet name="俄罗斯" sheetId="8" r:id="rId3"/>
     <sheet name="巴西" sheetId="9" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">中国!$B$2:$B$6</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">中国!$D$1</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">中国!$B$2:$B$6</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">中国!$D$1</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">中国!$D$2:$D$6</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">中国!$E$1</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">中国!$E$2:$E$6</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">中国!$B$2:$B$6</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">中国!$D$1</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">中国!$D$2:$D$6</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">中国!$E$1</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">中国!$E$2:$E$6</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">中国!$D$2:$D$6</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">中国!$B$2:$B$6</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">中国!$D$1</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">中国!$D$2:$D$6</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">中国!$E$1</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">中国!$E$2:$E$6</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">中国!$B$2:$B$6</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">中国!$D$1</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">中国!$D$2:$D$6</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">中国!$E$1</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">中国!$E$2:$E$6</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">中国!$E$1</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">中国!$B$2:$B$6</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">中国!$D$1</definedName>
+    <definedName name="_xlchart.v1.32" hidden="1">中国!$D$2:$D$6</definedName>
+    <definedName name="_xlchart.v1.33" hidden="1">中国!$E$1</definedName>
+    <definedName name="_xlchart.v1.34" hidden="1">中国!$E$2:$E$6</definedName>
+    <definedName name="_xlchart.v1.35" hidden="1">中国!$B$2:$B$6</definedName>
+    <definedName name="_xlchart.v1.36" hidden="1">中国!$D$1</definedName>
+    <definedName name="_xlchart.v1.37" hidden="1">中国!$D$2:$D$6</definedName>
+    <definedName name="_xlchart.v1.38" hidden="1">中国!$E$1</definedName>
+    <definedName name="_xlchart.v1.39" hidden="1">中国!$E$2:$E$6</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">中国!$E$2:$E$6</definedName>
+    <definedName name="_xlchart.v1.40" hidden="1">中国!$B$2:$B$6</definedName>
+    <definedName name="_xlchart.v1.41" hidden="1">中国!$D$1</definedName>
+    <definedName name="_xlchart.v1.42" hidden="1">中国!$D$2:$D$6</definedName>
+    <definedName name="_xlchart.v1.43" hidden="1">中国!$E$1</definedName>
+    <definedName name="_xlchart.v1.44" hidden="1">中国!$E$2:$E$6</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">中国!$B$2:$B$6</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">中国!$D$1</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">中国!$D$2:$D$6</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">中国!$E$1</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">中国!$E$2:$E$6</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -503,7 +550,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.00_ " sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -7700,7 +7747,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.00_ " sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -45393,8 +45440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" zoomScale="118" zoomScaleNormal="181" workbookViewId="0">
-      <selection activeCell="AC14" sqref="AC14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -45931,7 +45978,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C489184-7012-DA49-892D-474E285C9C62}">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+    <sheetView zoomScale="125" workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
